--- a/data/trans_orig/IP07A07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDAF514E-7764-4FE0-B040-67FA0FF11F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC14946-54AC-48E0-A0BF-C4220FD358FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D8E2C58E-237F-426B-873D-BE60C15258F3}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{80142ACD-B4F3-44FF-BB24-881407ADDF48}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,256 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
   </si>
   <si>
     <t>6,59%</t>
@@ -100,39 +346,6 @@
     <t>11,99%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>2,75%</t>
   </si>
   <si>
@@ -145,9 +358,6 @@
     <t>1,24%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>3,78%</t>
   </si>
   <si>
@@ -160,48 +370,12 @@
     <t>3,98%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>0,62%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
     <t>0,61%</t>
   </si>
   <si>
@@ -217,105 +391,165 @@
     <t>3,16%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
     <t>9,48%</t>
   </si>
   <si>
@@ -343,33 +577,6 @@
     <t>17,66%</t>
   </si>
   <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
     <t>0,68%</t>
   </si>
   <si>
@@ -394,33 +601,6 @@
     <t>3,7%</t>
   </si>
   <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
     <t>1,32%</t>
   </si>
   <si>
@@ -436,184 +616,58 @@
     <t>2,57%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
   </si>
   <si>
     <t>9,42%</t>
@@ -643,33 +697,6 @@
     <t>12,9%</t>
   </si>
   <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
     <t>0,98%</t>
   </si>
   <si>
@@ -694,33 +721,6 @@
     <t>2,06%</t>
   </si>
   <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
     <t>0,18%</t>
   </si>
   <si>
@@ -742,6 +742,246 @@
     <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 44,88%)</t>
   </si>
   <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
     <t>14,4%</t>
   </si>
   <si>
@@ -769,33 +1009,6 @@
     <t>17,95%</t>
   </si>
   <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
     <t>1,34%</t>
   </si>
   <si>
@@ -817,33 +1030,6 @@
     <t>4,75%</t>
   </si>
   <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
     <t>1,31%</t>
   </si>
   <si>
@@ -856,106 +1042,172 @@
     <t>2,39%</t>
   </si>
   <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
   </si>
   <si>
     <t>20,0%</t>
@@ -985,33 +1237,6 @@
     <t>18,83%</t>
   </si>
   <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>39,75%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
     <t>4,16%</t>
   </si>
   <si>
@@ -1027,33 +1252,6 @@
     <t>3,64%</t>
   </si>
   <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
     <t>5,45%</t>
   </si>
   <si>
@@ -1063,202 +1261,55 @@
     <t>3,31%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
   </si>
   <si>
     <t>15,71%</t>
@@ -1288,30 +1339,6 @@
     <t>15,76%</t>
   </si>
   <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
     <t>0,23%</t>
   </si>
   <si>
@@ -1333,33 +1360,6 @@
     <t>2,69%</t>
   </si>
   <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
     <t>1,11%</t>
   </si>
   <si>
@@ -1381,6 +1381,252 @@
     <t>Menores según frecuencia de sentir que todo le sale mal en 2015 (Tasa respuesta: 47,27%)</t>
   </si>
   <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
     <t>7,21%</t>
   </si>
   <si>
@@ -1399,39 +1645,9 @@
     <t>9,17%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
     <t>5,58%</t>
   </si>
   <si>
@@ -1459,33 +1675,6 @@
     <t>10,74%</t>
   </si>
   <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
     <t>3,23%</t>
   </si>
   <si>
@@ -1504,106 +1693,181 @@
     <t>4,41%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
   </si>
   <si>
     <t>9,62%</t>
@@ -1630,30 +1894,6 @@
     <t>14,87%</t>
   </si>
   <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
     <t>1,58%</t>
   </si>
   <si>
@@ -1675,33 +1915,6 @@
     <t>5,31%</t>
   </si>
   <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
     <t>0,7%</t>
   </si>
   <si>
@@ -1711,217 +1924,55 @@
     <t>2,05%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
   </si>
   <si>
     <t>7,19%</t>
@@ -1948,30 +1999,6 @@
     <t>10,33%</t>
   </si>
   <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
     <t>2,67%</t>
   </si>
   <si>
@@ -1988,33 +2015,6 @@
   </si>
   <si>
     <t>6,65%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
   </si>
   <si>
     <t>2,31%</t>
@@ -2418,7 +2418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59017A2D-51F5-4F29-84E2-498AB0592B71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B0F052-333B-4758-A0AB-7DA314FC018A}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2539,7 +2539,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>6543</v>
+        <v>7776</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2551,10 +2551,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>11007</v>
+        <v>6349</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2566,10 +2566,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>17550</v>
+        <v>14124</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2587,10 +2587,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>19399</v>
+        <v>6040</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2602,10 +2602,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>25853</v>
+        <v>7883</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2617,10 +2617,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>45253</v>
+        <v>13923</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2638,10 +2638,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>2724</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2653,136 +2653,136 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>1296</v>
+        <v>806</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>806</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="7">
-        <v>6</v>
-      </c>
-      <c r="N6" s="7">
-        <v>4020</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="C7" s="7">
-        <v>106</v>
-      </c>
-      <c r="D7" s="7">
-        <v>69954</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="7">
-        <v>101</v>
-      </c>
-      <c r="I7" s="7">
-        <v>64548</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="7">
-        <v>207</v>
-      </c>
-      <c r="N7" s="7">
-        <v>134503</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>613</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1942</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>2556</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,102 +2791,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>99235</v>
+        <v>13816</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>104646</v>
+        <v>15037</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>316</v>
+        <v>37</v>
       </c>
       <c r="N9" s="7">
-        <v>203882</v>
+        <v>28853</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D10" s="7">
-        <v>8599</v>
+        <v>38422</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>4521</v>
+        <v>28931</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="N10" s="7">
-        <v>13120</v>
+        <v>67354</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2901,13 @@
         <v>19978</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>23</v>
@@ -2916,13 +2916,13 @@
         <v>15526</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>53</v>
@@ -2931,13 +2931,13 @@
         <v>35504</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,106 +2946,106 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>8599</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>4521</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>13120</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>38422</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>28931</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>67354</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3054,13 +3054,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3069,13 +3069,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3084,13 +3084,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,13 +3105,13 @@
         <v>66999</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -3120,13 +3120,13 @@
         <v>48979</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>175</v>
@@ -3135,66 +3135,66 @@
         <v>115978</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="D16" s="7">
-        <v>9410</v>
+        <v>69954</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H16" s="7">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="I16" s="7">
-        <v>15647</v>
+        <v>64548</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
-        <v>33</v>
+        <v>207</v>
       </c>
       <c r="N16" s="7">
-        <v>25057</v>
+        <v>134503</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,49 +3203,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D17" s="7">
-        <v>17435</v>
+        <v>19399</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I17" s="7">
-        <v>13636</v>
+        <v>25853</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="N17" s="7">
-        <v>31071</v>
+        <v>45253</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3254,151 +3254,151 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>679</v>
+        <v>6543</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I18" s="7">
-        <v>2189</v>
+        <v>11007</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="N18" s="7">
-        <v>2868</v>
+        <v>17550</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
+        <v>4</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2724</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1296</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="7">
-        <v>71719</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" s="7">
-        <v>77</v>
-      </c>
-      <c r="I19" s="7">
-        <v>58927</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
-        <v>182</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>130645</v>
+        <v>4020</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>1526</v>
+        <v>1942</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>1526</v>
+        <v>2556</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,102 +3407,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D21" s="7">
-        <v>99242</v>
+        <v>99235</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="I21" s="7">
-        <v>91926</v>
+        <v>104646</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>264</v>
+        <v>316</v>
       </c>
       <c r="N21" s="7">
-        <v>191167</v>
+        <v>203882</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>42241</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="I22" s="7">
-        <v>806</v>
+        <v>34623</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="N22" s="7">
-        <v>806</v>
+        <v>76864</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,49 +3511,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D23" s="7">
-        <v>6040</v>
+        <v>16047</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H23" s="7">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I23" s="7">
-        <v>7883</v>
+        <v>16656</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="N23" s="7">
-        <v>13923</v>
+        <v>32703</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,106 +3562,106 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>8007</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>7881</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>15888</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>7776</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>6349</v>
+        <v>1264</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>14124</v>
+        <v>1264</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3685,13 +3685,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3700,13 +3700,13 @@
         <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3715,102 +3715,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D27" s="7">
-        <v>13816</v>
+        <v>66295</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="I27" s="7">
-        <v>15037</v>
+        <v>60424</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="N27" s="7">
-        <v>28853</v>
+        <v>126719</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="D28" s="7">
-        <v>8007</v>
+        <v>71719</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H28" s="7">
+        <v>77</v>
+      </c>
+      <c r="I28" s="7">
+        <v>58927</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M28" s="7">
+        <v>182</v>
+      </c>
+      <c r="N28" s="7">
+        <v>130645</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H28" s="7">
-        <v>13</v>
-      </c>
-      <c r="I28" s="7">
-        <v>7881</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M28" s="7">
-        <v>25</v>
-      </c>
-      <c r="N28" s="7">
-        <v>15888</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,46 +3822,46 @@
         <v>25</v>
       </c>
       <c r="D29" s="7">
-        <v>16047</v>
+        <v>17435</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H29" s="7">
+        <v>18</v>
+      </c>
+      <c r="I29" s="7">
+        <v>13636</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M29" s="7">
+        <v>43</v>
+      </c>
+      <c r="N29" s="7">
+        <v>31071</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H29" s="7">
-        <v>28</v>
-      </c>
-      <c r="I29" s="7">
-        <v>16656</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M29" s="7">
-        <v>53</v>
-      </c>
-      <c r="N29" s="7">
-        <v>32703</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,106 +3870,106 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D30" s="7">
-        <v>0</v>
+        <v>9410</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H30" s="7">
+        <v>20</v>
+      </c>
+      <c r="I30" s="7">
+        <v>15647</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M30" s="7">
+        <v>33</v>
+      </c>
+      <c r="N30" s="7">
+        <v>25057</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="7">
-        <v>2</v>
-      </c>
-      <c r="I30" s="7">
-        <v>1264</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="M30" s="7">
-        <v>2</v>
-      </c>
-      <c r="N30" s="7">
-        <v>1264</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>42241</v>
+        <v>679</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2189</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H31" s="7">
-        <v>56</v>
-      </c>
-      <c r="I31" s="7">
-        <v>34623</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>4</v>
+      </c>
+      <c r="N31" s="7">
+        <v>2868</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="M31" s="7">
-        <v>123</v>
-      </c>
-      <c r="N31" s="7">
-        <v>76864</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7">
         <v>0</v>
@@ -3978,40 +3978,40 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="H32" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>0</v>
+        <v>1526</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>35</v>
+        <v>188</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M32" s="7">
+        <v>2</v>
+      </c>
+      <c r="N32" s="7">
+        <v>1526</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="P32" s="7" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>191</v>
@@ -4023,49 +4023,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="D33" s="7">
-        <v>66295</v>
+        <v>99242</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="I33" s="7">
-        <v>60424</v>
+        <v>91926</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>203</v>
+        <v>264</v>
       </c>
       <c r="N33" s="7">
-        <v>126719</v>
+        <v>191167</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,10 +4076,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>48</v>
+        <v>347</v>
       </c>
       <c r="D34" s="7">
-        <v>32558</v>
+        <v>230112</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>192</v>
@@ -4091,10 +4091,10 @@
         <v>194</v>
       </c>
       <c r="H34" s="7">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="I34" s="7">
-        <v>39862</v>
+        <v>193378</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>195</v>
@@ -4106,10 +4106,10 @@
         <v>197</v>
       </c>
       <c r="M34" s="7">
-        <v>107</v>
+        <v>632</v>
       </c>
       <c r="N34" s="7">
-        <v>72420</v>
+        <v>423491</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>198</v>
@@ -4178,10 +4178,10 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D36" s="7">
-        <v>3403</v>
+        <v>32558</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>210</v>
@@ -4193,10 +4193,10 @@
         <v>212</v>
       </c>
       <c r="H36" s="7">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="I36" s="7">
-        <v>4749</v>
+        <v>39862</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>213</v>
@@ -4208,67 +4208,67 @@
         <v>215</v>
       </c>
       <c r="M36" s="7">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="N36" s="7">
-        <v>8153</v>
+        <v>72420</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>216</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>347</v>
+        <v>5</v>
       </c>
       <c r="D37" s="7">
-        <v>230112</v>
+        <v>3403</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H37" s="7">
-        <v>285</v>
+        <v>7</v>
       </c>
       <c r="I37" s="7">
-        <v>193378</v>
+        <v>4749</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M37" s="7">
-        <v>632</v>
+        <v>12</v>
       </c>
       <c r="N37" s="7">
-        <v>423491</v>
+        <v>8153</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>226</v>
@@ -4277,7 +4277,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
@@ -4289,7 +4289,7 @@
         <v>227</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>228</v>
@@ -4316,13 +4316,13 @@
         <v>4082</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>232</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4337,13 @@
         <v>345587</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>476</v>
@@ -4352,13 +4352,13 @@
         <v>321012</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>995</v>
@@ -4367,13 +4367,13 @@
         <v>666600</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -4394,7 +4394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29CCD4B-E231-4E3D-AE40-7FFB132B08C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946B60F4-B629-4B54-8A74-630C53B76F2F}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4512,10 +4512,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>13991</v>
+        <v>8909</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>234</v>
@@ -4527,10 +4527,10 @@
         <v>236</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>13156</v>
+        <v>6336</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>237</v>
@@ -4542,10 +4542,10 @@
         <v>239</v>
       </c>
       <c r="M4" s="7">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N4" s="7">
-        <v>27147</v>
+        <v>15244</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>240</v>
@@ -4563,10 +4563,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>24770</v>
+        <v>4426</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>243</v>
@@ -4578,10 +4578,10 @@
         <v>245</v>
       </c>
       <c r="H5" s="7">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>23440</v>
+        <v>4013</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>246</v>
@@ -4593,10 +4593,10 @@
         <v>248</v>
       </c>
       <c r="M5" s="7">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>48210</v>
+        <v>8439</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>249</v>
@@ -4614,43 +4614,43 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>1298</v>
+        <v>1155</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>252</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>253</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>3793</v>
+        <v>1594</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>254</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>3</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2750</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="M6" s="7">
-        <v>8</v>
-      </c>
-      <c r="N6" s="7">
-        <v>5091</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>257</v>
@@ -4662,58 +4662,58 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>57130</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="H7" s="7">
-        <v>87</v>
-      </c>
-      <c r="I7" s="7">
-        <v>57439</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M7" s="7">
-        <v>171</v>
-      </c>
-      <c r="N7" s="7">
-        <v>114569</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4722,43 +4722,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1341</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>1341</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,102 +4767,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>97190</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>99168</v>
+        <v>11943</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>295</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>196358</v>
+        <v>26433</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7">
-        <v>9565</v>
+        <v>34262</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>6801</v>
+        <v>27963</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="N10" s="7">
-        <v>16367</v>
+        <v>62225</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4877,13 @@
         <v>13716</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>24</v>
@@ -4892,13 +4892,13 @@
         <v>16861</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>45</v>
@@ -4907,13 +4907,13 @@
         <v>30577</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,106 +4922,106 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>9565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>279</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>1321</v>
+        <v>6801</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>35</v>
+        <v>283</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="N12" s="7">
-        <v>1321</v>
+        <v>16367</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>35</v>
+        <v>286</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>34262</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>294</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>295</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>27963</v>
+        <v>1321</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>298</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>62225</v>
+        <v>1321</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>301</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -5033,10 +5033,10 @@
         <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5045,13 +5045,13 @@
         <v>736</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5060,13 +5060,13 @@
         <v>1367</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,13 +5081,13 @@
         <v>58174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>75</v>
@@ -5096,13 +5096,13 @@
         <v>53683</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>160</v>
@@ -5111,66 +5111,66 @@
         <v>111857</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="D16" s="7">
-        <v>18623</v>
+        <v>57130</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="I16" s="7">
-        <v>6640</v>
+        <v>57439</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="M16" s="7">
-        <v>35</v>
+        <v>171</v>
       </c>
       <c r="N16" s="7">
-        <v>25264</v>
+        <v>114569</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,49 +5179,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7">
-        <v>18583</v>
+        <v>24770</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="7">
-        <v>28242</v>
+        <v>23440</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="N17" s="7">
-        <v>46825</v>
+        <v>48210</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,151 +5230,151 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D18" s="7">
-        <v>777</v>
+        <v>13991</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>35</v>
+        <v>315</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I18" s="7">
-        <v>1536</v>
+        <v>13156</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>35</v>
+        <v>318</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M18" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="N18" s="7">
-        <v>2313</v>
+        <v>27147</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>56</v>
+        <v>320</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1298</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="H19" s="7">
+        <v>6</v>
+      </c>
+      <c r="I19" s="7">
+        <v>3793</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M19" s="7">
+        <v>8</v>
+      </c>
+      <c r="N19" s="7">
+        <v>5091</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="7">
-        <v>53602</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="P19" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H19" s="7">
-        <v>69</v>
-      </c>
-      <c r="I19" s="7">
-        <v>54163</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M19" s="7">
-        <v>141</v>
-      </c>
-      <c r="N19" s="7">
-        <v>107764</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
-        <v>1544</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
       <c r="I20" s="7">
-        <v>746</v>
+        <v>1341</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>2290</v>
+        <v>1341</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,102 +5383,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="D21" s="7">
-        <v>93130</v>
+        <v>97190</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="I21" s="7">
-        <v>91327</v>
+        <v>99168</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="N21" s="7">
-        <v>184457</v>
+        <v>196358</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="D22" s="7">
-        <v>1155</v>
+        <v>49413</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H22" s="7">
+        <v>64</v>
+      </c>
+      <c r="I22" s="7">
+        <v>41152</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="M22" s="7">
+        <v>141</v>
+      </c>
+      <c r="N22" s="7">
+        <v>90564</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="H22" s="7">
-        <v>2</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1594</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="M22" s="7">
-        <v>3</v>
-      </c>
-      <c r="N22" s="7">
-        <v>2750</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,49 +5487,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D23" s="7">
-        <v>4426</v>
+        <v>9137</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H23" s="7">
+        <v>21</v>
+      </c>
+      <c r="I23" s="7">
+        <v>14417</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>36</v>
+      </c>
+      <c r="N23" s="7">
+        <v>23553</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="H23" s="7">
-        <v>5</v>
-      </c>
-      <c r="I23" s="7">
-        <v>4013</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="M23" s="7">
-        <v>10</v>
-      </c>
-      <c r="N23" s="7">
-        <v>8439</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>356</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,46 +5538,46 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>8892</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>35</v>
+        <v>351</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H24" s="7">
+        <v>12</v>
+      </c>
+      <c r="I24" s="7">
+        <v>7697</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="M24" s="7">
+        <v>27</v>
+      </c>
+      <c r="N24" s="7">
+        <v>16588</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>359</v>
@@ -5586,103 +5586,103 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>8909</v>
+        <v>580</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>360</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1947</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="H25" s="7">
-        <v>7</v>
-      </c>
-      <c r="I25" s="7">
-        <v>6336</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>4</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2527</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="M25" s="7">
-        <v>17</v>
-      </c>
-      <c r="N25" s="7">
-        <v>15244</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>1503</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>35</v>
+        <v>367</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>1312</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>2815</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>35</v>
+        <v>370</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,102 +5691,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>69524</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="I27" s="7">
-        <v>11943</v>
+        <v>66524</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="N27" s="7">
-        <v>26433</v>
+        <v>136048</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D28" s="7">
-        <v>8892</v>
+        <v>53602</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H28" s="7">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I28" s="7">
-        <v>7697</v>
+        <v>54163</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="M28" s="7">
-        <v>27</v>
+        <v>141</v>
       </c>
       <c r="N28" s="7">
-        <v>16588</v>
+        <v>107764</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,49 +5795,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D29" s="7">
-        <v>9137</v>
+        <v>18583</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>380</v>
+        <v>276</v>
       </c>
       <c r="H29" s="7">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I29" s="7">
-        <v>14417</v>
+        <v>28242</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M29" s="7">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="N29" s="7">
-        <v>23553</v>
+        <v>46825</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>201</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,148 +5846,148 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D30" s="7">
-        <v>580</v>
+        <v>18623</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>323</v>
+        <v>390</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="H30" s="7">
+        <v>9</v>
+      </c>
+      <c r="I30" s="7">
+        <v>6640</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M30" s="7">
         <v>35</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="H30" s="7">
-        <v>3</v>
-      </c>
-      <c r="I30" s="7">
-        <v>1947</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="M30" s="7">
-        <v>4</v>
-      </c>
       <c r="N30" s="7">
-        <v>2527</v>
+        <v>25264</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>53</v>
+        <v>396</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>49413</v>
+        <v>777</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>393</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H31" s="7">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>41152</v>
+        <v>1536</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>396</v>
+        <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M31" s="7">
-        <v>141</v>
+        <v>3</v>
       </c>
       <c r="N31" s="7">
-        <v>90564</v>
+        <v>2313</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>398</v>
+        <v>114</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7">
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>1503</v>
+        <v>1544</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>401</v>
+        <v>188</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H32" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>1312</v>
+        <v>746</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>37</v>
+        <v>405</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M32" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" s="7">
-        <v>2815</v>
+        <v>2290</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>404</v>
+        <v>105</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>405</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>406</v>
@@ -5999,49 +5999,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D33" s="7">
-        <v>69524</v>
+        <v>93130</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="I33" s="7">
-        <v>66524</v>
+        <v>91327</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="N33" s="7">
-        <v>136048</v>
+        <v>184457</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,10 +6052,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="D34" s="7">
-        <v>52227</v>
+        <v>203315</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>407</v>
@@ -6067,10 +6067,10 @@
         <v>409</v>
       </c>
       <c r="H34" s="7">
-        <v>52</v>
+        <v>266</v>
       </c>
       <c r="I34" s="7">
-        <v>35888</v>
+        <v>187052</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>410</v>
@@ -6082,10 +6082,10 @@
         <v>412</v>
       </c>
       <c r="M34" s="7">
-        <v>129</v>
+        <v>558</v>
       </c>
       <c r="N34" s="7">
-        <v>88116</v>
+        <v>390367</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>413</v>
@@ -6154,91 +6154,91 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D36" s="7">
-        <v>2656</v>
+        <v>52227</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>130</v>
+        <v>424</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H36" s="7">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="I36" s="7">
-        <v>8597</v>
+        <v>35888</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>302</v>
+        <v>429</v>
       </c>
       <c r="M36" s="7">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="N36" s="7">
-        <v>11252</v>
+        <v>88116</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
+        <v>4</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2656</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H37" s="7">
+        <v>13</v>
+      </c>
+      <c r="I37" s="7">
+        <v>8597</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="D37" s="7">
-        <v>203315</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="H37" s="7">
-        <v>266</v>
-      </c>
-      <c r="I37" s="7">
-        <v>187052</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>436</v>
-      </c>
       <c r="M37" s="7">
-        <v>558</v>
+        <v>17</v>
       </c>
       <c r="N37" s="7">
-        <v>390367</v>
+        <v>11252</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>437</v>
@@ -6253,7 +6253,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
         <v>5</v>
@@ -6283,7 +6283,7 @@
         <v>444</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="M38" s="7">
         <v>11</v>
@@ -6295,10 +6295,10 @@
         <v>445</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6313,13 @@
         <v>332508</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>458</v>
@@ -6328,13 +6328,13 @@
         <v>322645</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>942</v>
@@ -6343,13 +6343,13 @@
         <v>655153</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6370,7 +6370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0EA192-0032-4CD7-A321-6D96FFF5F99A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA1560E-6740-4544-B7B1-3D5237D8C172}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6488,10 +6488,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>7757</v>
+        <v>11978</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>447</v>
@@ -6503,34 +6503,34 @@
         <v>449</v>
       </c>
       <c r="H4" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>11893</v>
+        <v>7807</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>357</v>
+        <v>450</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M4" s="7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>19651</v>
+        <v>19785</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,40 +6539,40 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>25572</v>
+        <v>2336</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H5" s="7">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>24228</v>
+        <v>2238</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>459</v>
+        <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>460</v>
       </c>
       <c r="M5" s="7">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>49799</v>
+        <v>4575</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>461</v>
@@ -6590,151 +6590,151 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>6005</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1030</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="H6" s="7">
-        <v>17</v>
-      </c>
-      <c r="I6" s="7">
-        <v>10492</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1030</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="P6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="M6" s="7">
-        <v>26</v>
-      </c>
-      <c r="N6" s="7">
-        <v>16497</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>64841</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2850</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="M7" s="7">
+        <v>3</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2850</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="H7" s="7">
-        <v>87</v>
-      </c>
-      <c r="I7" s="7">
-        <v>58782</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="M7" s="7">
-        <v>179</v>
-      </c>
-      <c r="N7" s="7">
-        <v>123622</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>3475</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>482</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1234</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>484</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>4709</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>486</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6743,102 +6743,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7">
-        <v>107649</v>
+        <v>14314</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7">
-        <v>106630</v>
+        <v>13926</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
-        <v>317</v>
+        <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>214278</v>
+        <v>28240</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7">
-        <v>3747</v>
+        <v>37324</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="I10" s="7">
-        <v>1909</v>
+        <v>40033</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>215</v>
+        <v>479</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="M10" s="7">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="N10" s="7">
-        <v>5656</v>
+        <v>77357</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6853,13 +6853,13 @@
         <v>12938</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -6868,13 +6868,13 @@
         <v>12646</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="M11" s="7">
         <v>35</v>
@@ -6883,13 +6883,13 @@
         <v>25585</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,103 +6901,103 @@
         <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>3852</v>
+        <v>3747</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>304</v>
+        <v>494</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>131</v>
+        <v>495</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>307</v>
+        <v>496</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>2326</v>
+        <v>1909</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>504</v>
+        <v>224</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>6178</v>
+        <v>5656</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>37324</v>
+        <v>3852</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>510</v>
+        <v>294</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>511</v>
+        <v>191</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>512</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>40033</v>
+        <v>2326</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="M13" s="7">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>77357</v>
+        <v>6178</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -7006,13 +7006,13 @@
         <v>727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -7021,13 +7021,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -7036,13 +7036,13 @@
         <v>727</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,13 +7057,13 @@
         <v>58587</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H15" s="7">
         <v>81</v>
@@ -7072,13 +7072,13 @@
         <v>56915</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M15" s="7">
         <v>157</v>
@@ -7087,66 +7087,66 @@
         <v>115502</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D16" s="7">
-        <v>9827</v>
+        <v>64841</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="H16" s="7">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="I16" s="7">
-        <v>12708</v>
+        <v>58782</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="M16" s="7">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="N16" s="7">
-        <v>22535</v>
+        <v>123622</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>472</v>
+        <v>517</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,49 +7155,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D17" s="7">
-        <v>29145</v>
+        <v>25572</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="H17" s="7">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I17" s="7">
-        <v>23606</v>
+        <v>24228</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>525</v>
       </c>
       <c r="M17" s="7">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N17" s="7">
-        <v>52751</v>
+        <v>49799</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,151 +7206,151 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>1609</v>
+        <v>7757</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>35</v>
+        <v>530</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="H18" s="7">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="I18" s="7">
-        <v>4519</v>
+        <v>11893</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>540</v>
+        <v>259</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>341</v>
+        <v>533</v>
       </c>
       <c r="M18" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N18" s="7">
-        <v>6128</v>
+        <v>19651</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>543</v>
+        <v>494</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="7">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>60848</v>
+        <v>6005</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="H19" s="7">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="I19" s="7">
-        <v>66758</v>
+        <v>10492</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="M19" s="7">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="N19" s="7">
-        <v>127606</v>
+        <v>16497</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>713</v>
+        <v>3475</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>328</v>
+        <v>546</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>1234</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>35</v>
+        <v>547</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>548</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N20" s="7">
-        <v>713</v>
+        <v>4709</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7359,102 +7359,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="D21" s="7">
-        <v>102142</v>
+        <v>107649</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="I21" s="7">
-        <v>107592</v>
+        <v>106630</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M21" s="7">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="N21" s="7">
-        <v>209734</v>
+        <v>214278</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>54522</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>35</v>
+        <v>551</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>79</v>
+        <v>552</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="H22" s="7">
+        <v>72</v>
+      </c>
+      <c r="I22" s="7">
+        <v>46562</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="M22" s="7">
+        <v>148</v>
+      </c>
+      <c r="N22" s="7">
+        <v>101083</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="H22" s="7">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1030</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1030</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7463,49 +7463,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D23" s="7">
-        <v>2336</v>
+        <v>12157</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>24</v>
+      </c>
+      <c r="I23" s="7">
+        <v>15698</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="H23" s="7">
-        <v>2</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2238</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>41</v>
+      </c>
+      <c r="N23" s="7">
+        <v>27856</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="M23" s="7">
-        <v>5</v>
-      </c>
-      <c r="N23" s="7">
-        <v>4575</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7514,97 +7514,97 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>4596</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>35</v>
+        <v>569</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>79</v>
+        <v>570</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="H24" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>2850</v>
+        <v>5851</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>571</v>
+        <v>361</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M24" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N24" s="7">
-        <v>2850</v>
+        <v>10447</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>136</v>
+        <v>575</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>11978</v>
+        <v>3269</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H25" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>7807</v>
+        <v>1321</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>579</v>
+        <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="M25" s="7">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>19785</v>
+        <v>4590</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>582</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>583</v>
@@ -7613,52 +7613,52 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>3399</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>35</v>
+        <v>584</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>79</v>
+        <v>585</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>557</v>
+        <v>586</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>2278</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>35</v>
+        <v>587</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>79</v>
+        <v>588</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>5677</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>35</v>
+        <v>590</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>79</v>
+        <v>591</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7667,102 +7667,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>14314</v>
+        <v>77943</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="I27" s="7">
-        <v>13926</v>
+        <v>71710</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="N27" s="7">
-        <v>28240</v>
+        <v>149653</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="D28" s="7">
-        <v>4596</v>
+        <v>60848</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="H28" s="7">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="I28" s="7">
-        <v>5851</v>
+        <v>66758</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>386</v>
+        <v>597</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="M28" s="7">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="N28" s="7">
-        <v>10447</v>
+        <v>127606</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7771,49 +7771,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D29" s="7">
-        <v>12157</v>
+        <v>29145</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="H29" s="7">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I29" s="7">
-        <v>15698</v>
+        <v>23606</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>599</v>
+        <v>53</v>
       </c>
       <c r="M29" s="7">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="N29" s="7">
-        <v>27856</v>
+        <v>52751</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7822,148 +7822,148 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D30" s="7">
-        <v>3269</v>
+        <v>9827</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="H30" s="7">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I30" s="7">
-        <v>1321</v>
+        <v>12708</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>35</v>
+        <v>614</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="M30" s="7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="N30" s="7">
-        <v>4590</v>
+        <v>22535</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>608</v>
+        <v>544</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>445</v>
+        <v>616</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>54522</v>
+        <v>1609</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>611</v>
+        <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="H31" s="7">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="I31" s="7">
-        <v>46562</v>
+        <v>4519</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>615</v>
+        <v>252</v>
       </c>
       <c r="M31" s="7">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="N31" s="7">
-        <v>101083</v>
+        <v>6128</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C32" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>3399</v>
+        <v>713</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>620</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>621</v>
+        <v>403</v>
       </c>
       <c r="H32" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>2278</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>622</v>
+        <v>31</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>623</v>
+        <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>624</v>
+        <v>331</v>
       </c>
       <c r="M32" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N32" s="7">
-        <v>5677</v>
+        <v>713</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>626</v>
+        <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>627</v>
@@ -7975,49 +7975,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="D33" s="7">
-        <v>77943</v>
+        <v>102142</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H33" s="7">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="I33" s="7">
-        <v>71710</v>
+        <v>107592</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M33" s="7">
-        <v>220</v>
+        <v>279</v>
       </c>
       <c r="N33" s="7">
-        <v>149653</v>
+        <v>209734</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8028,10 +8028,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>36</v>
+        <v>311</v>
       </c>
       <c r="D34" s="7">
-        <v>25927</v>
+        <v>229513</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>628</v>
@@ -8040,37 +8040,37 @@
         <v>629</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>105</v>
+        <v>630</v>
       </c>
       <c r="H34" s="7">
-        <v>49</v>
+        <v>311</v>
       </c>
       <c r="I34" s="7">
-        <v>33392</v>
+        <v>219942</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M34" s="7">
-        <v>85</v>
+        <v>622</v>
       </c>
       <c r="N34" s="7">
-        <v>59319</v>
+        <v>449455</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8085,13 +8085,13 @@
         <v>82149</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H35" s="7">
         <v>113</v>
@@ -8100,13 +8100,13 @@
         <v>78417</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="M35" s="7">
         <v>229</v>
@@ -8115,13 +8115,13 @@
         <v>160566</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8130,97 +8130,97 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D36" s="7">
-        <v>14734</v>
+        <v>25927</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>504</v>
+        <v>645</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>645</v>
+        <v>165</v>
       </c>
       <c r="H36" s="7">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I36" s="7">
-        <v>21509</v>
+        <v>33392</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>403</v>
+        <v>647</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="M36" s="7">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="N36" s="7">
-        <v>36243</v>
+        <v>59319</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>625</v>
+        <v>651</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="D37" s="7">
-        <v>229513</v>
+        <v>14734</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>650</v>
+        <v>502</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="H37" s="7">
-        <v>311</v>
+        <v>31</v>
       </c>
       <c r="I37" s="7">
-        <v>219942</v>
+        <v>21509</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>653</v>
+        <v>369</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M37" s="7">
-        <v>622</v>
+        <v>51</v>
       </c>
       <c r="N37" s="7">
-        <v>449455</v>
+        <v>36243</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>657</v>
+        <v>590</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>658</v>
@@ -8229,7 +8229,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C38" s="7">
         <v>12</v>
@@ -8241,7 +8241,7 @@
         <v>659</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>252</v>
+        <v>323</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>660</v>
@@ -8253,13 +8253,13 @@
         <v>3512</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>441</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="M38" s="7">
         <v>18</v>
@@ -8274,7 +8274,7 @@
         <v>662</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,13 +8289,13 @@
         <v>360636</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H39" s="7">
         <v>510</v>
@@ -8304,13 +8304,13 @@
         <v>356772</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M39" s="7">
         <v>1005</v>
@@ -8319,13 +8319,13 @@
         <v>717408</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A07-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84347E80-F86A-4681-AAEC-4D3C4E9FA74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F744E0E-6D58-4C87-A9EE-6365DF30E552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6F19FA2D-BEBC-4A21-95E2-E689F6876FDE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C25CEB09-3EB7-45F8-98D8-31533BB9424E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="660">
   <si>
     <t>Menores según frecuencia de sentir que todo le sale mal en 2007 (Tasa respuesta: 47,29%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -97,13 +97,13 @@
     <t>5,36%</t>
   </si>
   <si>
-    <t>26,94%</t>
+    <t>26,96%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>12,72%</t>
+    <t>14,05%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -112,1888 +112,1912 @@
     <t>43,72%</t>
   </si>
   <si>
-    <t>21,26%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
   </si>
   <si>
     <t>68,34%</t>
   </si>
   <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 44,88%)</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentir que todo le sale mal en 2016 (Tasa respuesta: 47,27%)</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>63,71%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>4,19%</t>
   </si>
   <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
   </si>
   <si>
     <t>22,06%</t>
   </si>
   <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>57,35%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
   </si>
   <si>
     <t>26,54%</t>
   </si>
   <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2012 (Tasa respuesta: 44,88%)</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
   </si>
   <si>
     <t>61,65%</t>
   </si>
   <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentir que todo le sale mal en 2015 (Tasa respuesta: 47,27%)</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
   </si>
   <si>
     <t>62,65%</t>
   </si>
   <si>
-    <t>59,66%</t>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
   </si>
 </sst>
 </file>
@@ -2405,7 +2429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6543F8-B4F4-4393-A7FD-335F63DA9CF2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABC2711-FF2F-4BDF-8D92-3C0311702EDE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3884,7 +3908,7 @@
         <v>170</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="M30" s="7">
         <v>33</v>
@@ -3893,13 +3917,13 @@
         <v>25057</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3914,13 +3938,13 @@
         <v>17435</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H31" s="7">
         <v>18</v>
@@ -3929,13 +3953,13 @@
         <v>13636</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M31" s="7">
         <v>43</v>
@@ -3944,13 +3968,13 @@
         <v>31071</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,13 +3989,13 @@
         <v>71719</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H32" s="7">
         <v>77</v>
@@ -3980,13 +4004,13 @@
         <v>58927</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M32" s="7">
         <v>182</v>
@@ -3995,13 +4019,13 @@
         <v>130645</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4093,13 @@
         <v>613</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -4084,13 +4108,13 @@
         <v>3469</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="M34" s="7">
         <v>6</v>
@@ -4102,10 +4126,10 @@
         <v>77</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4120,13 +4144,13 @@
         <v>3403</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H35" s="7">
         <v>7</v>
@@ -4135,13 +4159,13 @@
         <v>4749</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M35" s="7">
         <v>12</v>
@@ -4150,13 +4174,13 @@
         <v>8153</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4195,13 @@
         <v>32558</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H36" s="7">
         <v>59</v>
@@ -4186,13 +4210,13 @@
         <v>39862</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M36" s="7">
         <v>107</v>
@@ -4201,13 +4225,13 @@
         <v>72420</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,13 +4246,13 @@
         <v>78900</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H37" s="7">
         <v>120</v>
@@ -4237,13 +4261,13 @@
         <v>79554</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M37" s="7">
         <v>238</v>
@@ -4252,13 +4276,13 @@
         <v>158454</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,13 +4297,13 @@
         <v>230112</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H38" s="7">
         <v>285</v>
@@ -4288,13 +4312,13 @@
         <v>193378</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M38" s="7">
         <v>632</v>
@@ -4303,13 +4327,13 @@
         <v>423491</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,7 +4389,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4386,7 +4410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACA4AFC-6189-4DF9-B5AD-7687D981D15E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA732A50-4782-43B2-A266-86748F2EC3AA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4403,7 +4427,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4516,7 +4540,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4531,7 +4555,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4546,7 +4570,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,7 +4591,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4582,7 +4606,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4597,7 +4621,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,13 +4636,13 @@
         <v>1155</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4627,13 +4651,13 @@
         <v>1594</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -4642,13 +4666,13 @@
         <v>2750</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4663,13 +4687,13 @@
         <v>4426</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4678,13 +4702,13 @@
         <v>4013</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -4693,13 +4717,13 @@
         <v>8439</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4714,13 +4738,13 @@
         <v>8909</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -4729,13 +4753,13 @@
         <v>6336</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -4744,13 +4768,13 @@
         <v>15244</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4842,13 @@
         <v>630</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4833,13 +4857,13 @@
         <v>736</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -4848,13 +4872,13 @@
         <v>1367</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,7 +4899,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -4884,13 +4908,13 @@
         <v>1321</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -4899,13 +4923,13 @@
         <v>1321</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4920,13 +4944,13 @@
         <v>9565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H12" s="7">
         <v>9</v>
@@ -4935,13 +4959,13 @@
         <v>6801</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>57</v>
+        <v>278</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -4950,13 +4974,13 @@
         <v>16367</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +4995,13 @@
         <v>13716</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -4986,13 +5010,13 @@
         <v>16861</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -5001,13 +5025,13 @@
         <v>30577</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +5046,13 @@
         <v>34262</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -5037,13 +5061,13 @@
         <v>27963</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
@@ -5052,13 +5076,13 @@
         <v>62225</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,7 +5156,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5141,13 +5165,13 @@
         <v>1341</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5162,7 +5186,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5201,13 @@
         <v>1298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -5192,13 +5216,13 @@
         <v>3793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -5210,10 +5234,10 @@
         <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,13 +5252,13 @@
         <v>13991</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -5243,13 +5267,13 @@
         <v>13156</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M18" s="7">
         <v>41</v>
@@ -5258,13 +5282,13 @@
         <v>27147</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5279,13 +5303,13 @@
         <v>24770</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -5294,13 +5318,13 @@
         <v>23440</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="M19" s="7">
         <v>73</v>
@@ -5309,13 +5333,13 @@
         <v>48210</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5354,13 @@
         <v>57130</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H20" s="7">
         <v>87</v>
@@ -5345,13 +5369,13 @@
         <v>57439</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M20" s="7">
         <v>171</v>
@@ -5360,13 +5384,13 @@
         <v>114569</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5434,13 +5458,13 @@
         <v>1503</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>199</v>
+        <v>336</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>337</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -5455,7 +5479,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>333</v>
+        <v>48</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -5464,13 +5488,13 @@
         <v>2815</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5509,13 @@
         <v>580</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -5500,13 +5524,13 @@
         <v>1947</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>157</v>
+        <v>343</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -5518,10 +5542,10 @@
         <v>44</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>51</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5536,13 +5560,13 @@
         <v>8892</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -5551,13 +5575,13 @@
         <v>7697</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>346</v>
+        <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -5566,13 +5590,13 @@
         <v>16588</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5611,13 @@
         <v>9137</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -5602,13 +5626,13 @@
         <v>14417</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -5617,13 +5641,13 @@
         <v>23553</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,13 +5662,13 @@
         <v>49413</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H26" s="7">
         <v>64</v>
@@ -5653,13 +5677,13 @@
         <v>41152</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M26" s="7">
         <v>141</v>
@@ -5668,13 +5692,13 @@
         <v>90564</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,7 +5772,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>18</v>
+        <v>373</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -5757,13 +5781,13 @@
         <v>746</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -5775,10 +5799,10 @@
         <v>85</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>194</v>
+        <v>376</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5817,13 @@
         <v>777</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -5808,13 +5832,13 @@
         <v>1536</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>15</v>
+        <v>379</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -5826,10 +5850,10 @@
         <v>79</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>194</v>
+        <v>380</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5868,13 @@
         <v>18623</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>322</v>
+        <v>382</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>374</v>
+        <v>316</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -5859,13 +5883,13 @@
         <v>6640</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="M30" s="7">
         <v>35</v>
@@ -5874,13 +5898,13 @@
         <v>25264</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5919,13 @@
         <v>18583</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="H31" s="7">
         <v>36</v>
@@ -5910,13 +5934,13 @@
         <v>28242</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M31" s="7">
         <v>63</v>
@@ -5925,13 +5949,13 @@
         <v>46825</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +5970,13 @@
         <v>53602</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="H32" s="7">
         <v>69</v>
@@ -5961,13 +5985,13 @@
         <v>54163</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="M32" s="7">
         <v>141</v>
@@ -5976,13 +6000,13 @@
         <v>107764</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>292</v>
+        <v>407</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,13 +6074,13 @@
         <v>3677</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -6065,13 +6089,13 @@
         <v>4136</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="M34" s="7">
         <v>11</v>
@@ -6080,13 +6104,13 @@
         <v>7813</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,10 +6128,10 @@
         <v>156</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>407</v>
+        <v>206</v>
       </c>
       <c r="H35" s="7">
         <v>13</v>
@@ -6116,13 +6140,13 @@
         <v>8597</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="M35" s="7">
         <v>17</v>
@@ -6131,13 +6155,13 @@
         <v>11252</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>403</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6176,13 @@
         <v>52227</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="H36" s="7">
         <v>52</v>
@@ -6167,13 +6191,13 @@
         <v>35888</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="M36" s="7">
         <v>129</v>
@@ -6182,13 +6206,13 @@
         <v>88116</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6203,13 +6227,13 @@
         <v>70633</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="H37" s="7">
         <v>121</v>
@@ -6218,13 +6242,13 @@
         <v>86972</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>384</v>
+        <v>19</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="M37" s="7">
         <v>227</v>
@@ -6233,13 +6257,13 @@
         <v>157605</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6254,13 +6278,13 @@
         <v>203315</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="H38" s="7">
         <v>266</v>
@@ -6269,13 +6293,13 @@
         <v>187052</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="M38" s="7">
         <v>558</v>
@@ -6284,13 +6308,13 @@
         <v>390367</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>189</v>
+        <v>446</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,7 +6370,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6367,7 +6391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3571D42-DBF6-40BD-986B-23E17D5CC6C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6374915-62D4-4876-BB73-D0BD4B129203}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6384,7 +6408,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6497,7 +6521,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6512,7 +6536,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6527,7 +6551,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,7 +6572,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6557,13 +6581,13 @@
         <v>2850</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6572,13 +6596,13 @@
         <v>2850</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,7 +6623,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6608,13 +6632,13 @@
         <v>1030</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>448</v>
+        <v>54</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -6623,13 +6647,13 @@
         <v>1030</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,13 +6668,13 @@
         <v>2336</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -6659,13 +6683,13 @@
         <v>2238</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -6674,13 +6698,13 @@
         <v>4575</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,13 +6719,13 @@
         <v>11978</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>469</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -6710,13 +6734,13 @@
         <v>7807</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="M8" s="7">
         <v>23</v>
@@ -6725,13 +6749,13 @@
         <v>19785</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6805,7 +6829,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6820,7 +6844,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -6829,13 +6853,13 @@
         <v>727</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6850,13 +6874,13 @@
         <v>3852</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -6865,13 +6889,13 @@
         <v>2326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>475</v>
+        <v>159</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -6880,13 +6904,13 @@
         <v>6178</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>486</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,13 +6925,13 @@
         <v>3747</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -6916,13 +6940,13 @@
         <v>1909</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>483</v>
+        <v>207</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -6931,13 +6955,13 @@
         <v>5656</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6952,13 +6976,13 @@
         <v>12938</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>489</v>
+        <v>104</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -6967,13 +6991,13 @@
         <v>12646</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>418</v>
+        <v>497</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -6982,13 +7006,13 @@
         <v>25585</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7003,13 +7027,13 @@
         <v>37324</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="H14" s="7">
         <v>57</v>
@@ -7018,13 +7042,13 @@
         <v>40033</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="M14" s="7">
         <v>105</v>
@@ -7033,13 +7057,13 @@
         <v>77357</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7131,13 @@
         <v>3475</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -7122,13 +7146,13 @@
         <v>1234</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -7137,13 +7161,13 @@
         <v>4709</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>509</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7182,13 @@
         <v>6005</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -7173,13 +7197,13 @@
         <v>10492</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -7188,13 +7212,13 @@
         <v>16497</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,13 +7233,13 @@
         <v>7757</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>522</v>
+        <v>131</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -7224,13 +7248,13 @@
         <v>11893</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="M18" s="7">
         <v>30</v>
@@ -7239,13 +7263,13 @@
         <v>19651</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>526</v>
+        <v>162</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7260,13 +7284,13 @@
         <v>25572</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -7275,13 +7299,13 @@
         <v>24228</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="M19" s="7">
         <v>75</v>
@@ -7290,13 +7314,13 @@
         <v>49799</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7311,13 +7335,13 @@
         <v>64841</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="H20" s="7">
         <v>87</v>
@@ -7326,13 +7350,13 @@
         <v>58782</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="M20" s="7">
         <v>179</v>
@@ -7341,13 +7365,13 @@
         <v>123622</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,13 +7439,13 @@
         <v>3399</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -7430,13 +7454,13 @@
         <v>2278</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>550</v>
+        <v>161</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -7445,13 +7469,13 @@
         <v>5677</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>118</v>
+        <v>556</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7466,13 +7490,13 @@
         <v>3269</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>51</v>
+        <v>558</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>554</v>
+        <v>484</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -7481,13 +7505,13 @@
         <v>1321</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M23" s="7">
         <v>6</v>
@@ -7496,13 +7520,13 @@
         <v>4590</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>402</v>
+        <v>563</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7517,13 +7541,13 @@
         <v>4596</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>443</v>
+        <v>565</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>160</v>
+        <v>566</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="H24" s="7">
         <v>9</v>
@@ -7532,13 +7556,13 @@
         <v>5851</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>51</v>
+        <v>569</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="M24" s="7">
         <v>16</v>
@@ -7547,13 +7571,13 @@
         <v>10447</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>563</v>
+        <v>277</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7568,13 +7592,13 @@
         <v>12157</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -7583,13 +7607,13 @@
         <v>15698</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -7598,13 +7622,13 @@
         <v>27856</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7619,13 +7643,13 @@
         <v>54522</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
@@ -7634,13 +7658,13 @@
         <v>46562</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="M26" s="7">
         <v>148</v>
@@ -7649,13 +7673,13 @@
         <v>101083</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>581</v>
+        <v>25</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7723,13 +7747,13 @@
         <v>713</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>83</v>
+        <v>590</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>584</v>
+        <v>272</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7744,7 +7768,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -7753,13 +7777,13 @@
         <v>713</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7774,13 +7798,13 @@
         <v>1609</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -7789,13 +7813,13 @@
         <v>4519</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>590</v>
+        <v>163</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -7804,13 +7828,13 @@
         <v>6128</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>593</v>
+        <v>265</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7825,13 +7849,13 @@
         <v>9827</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>458</v>
+        <v>600</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -7840,13 +7864,13 @@
         <v>12708</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -7855,13 +7879,13 @@
         <v>22535</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>519</v>
+        <v>605</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>122</v>
+        <v>606</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>600</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7876,13 +7900,13 @@
         <v>29145</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="H31" s="7">
         <v>32</v>
@@ -7891,13 +7915,13 @@
         <v>23606</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="M31" s="7">
         <v>73</v>
@@ -7906,13 +7930,13 @@
         <v>52751</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>608</v>
+        <v>397</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>609</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7927,13 +7951,13 @@
         <v>60848</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="H32" s="7">
         <v>86</v>
@@ -7942,13 +7966,13 @@
         <v>66758</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="M32" s="7">
         <v>167</v>
@@ -7957,13 +7981,13 @@
         <v>127606</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8031,13 +8055,13 @@
         <v>8313</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -8046,13 +8070,13 @@
         <v>3512</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>198</v>
+        <v>625</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>87</v>
+        <v>626</v>
       </c>
       <c r="M34" s="7">
         <v>18</v>
@@ -8061,13 +8085,13 @@
         <v>11826</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>621</v>
+        <v>551</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>195</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8082,13 +8106,13 @@
         <v>14734</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>475</v>
+        <v>159</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>512</v>
+        <v>628</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>623</v>
+        <v>126</v>
       </c>
       <c r="H35" s="7">
         <v>31</v>
@@ -8097,13 +8121,13 @@
         <v>21509</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="M35" s="7">
         <v>51</v>
@@ -8112,13 +8136,13 @@
         <v>36243</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>302</v>
+        <v>458</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>628</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8133,13 +8157,13 @@
         <v>25927</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>208</v>
+        <v>635</v>
       </c>
       <c r="H36" s="7">
         <v>49</v>
@@ -8148,13 +8172,13 @@
         <v>33392</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="M36" s="7">
         <v>85</v>
@@ -8163,13 +8187,13 @@
         <v>59319</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>472</v>
+        <v>640</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8184,13 +8208,13 @@
         <v>82149</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="H37" s="7">
         <v>113</v>
@@ -8199,13 +8223,13 @@
         <v>78417</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="M37" s="7">
         <v>229</v>
@@ -8214,13 +8238,13 @@
         <v>160566</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8235,13 +8259,13 @@
         <v>229513</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="H38" s="7">
         <v>311</v>
@@ -8250,13 +8274,13 @@
         <v>219942</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>248</v>
+        <v>654</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="M38" s="7">
         <v>622</v>
@@ -8265,13 +8289,13 @@
         <v>449455</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8327,7 +8351,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
